--- a/biology/Botanique/Pommier_Doucin/Pommier_Doucin.xlsx
+++ b/biology/Botanique/Pommier_Doucin/Pommier_Doucin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Pommier Doucin est le nom vernaculaire d'une variété de pommier domestique (Malus pumila) très répandue en Europe depuis le XVIe siècle. On pensait à l'origine qu'il s'agissait d'une espèce à part entière, mais il s'agit en fait d'un simple cultivar de Malus pumila « standard », mais disposant de caractéristiques spécifiques le rendant particulièrement adapté à l'usage en porte-greffe.
 Souvent associé au pommier paradis, le doucin est toutefois plus vigoureux. On l'utilise souvent comme porte-greffe pour les arbres formés en espalier ou en palmette.
